--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zsd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,9 +455,9 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -501,7 +509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100</v>
       </c>
@@ -541,9 +549,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -583,7 +591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100</v>
       </c>
@@ -618,12 +626,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -634,13 +655,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -654,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -680,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100</v>
       </c>

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -451,13 +451,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -483,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -549,9 +549,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -591,7 +591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -628,18 +628,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -659,9 +659,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -10,14 +10,15 @@
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TesetSheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="TesetSheet2 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,11 +96,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdfz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zsd</t>
+    <t>1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -483,7 +544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -509,7 +570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -533,6 +594,32 @@
       </c>
       <c r="I4">
         <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,6 +702,45 @@
       </c>
       <c r="I4">
         <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -626,21 +752,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D7"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="D3:E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -651,83 +785,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
-        <v>400</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4">
-        <v>600</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="TesetSheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="TesetSheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4b4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,6 +633,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I7"/>
   <sheetViews>
@@ -747,19 +772,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="2ndSheet" sheetId="3" r:id="rId2"/>
     <sheet name="TesetSheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -13,12 +13,19 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TesetSheet2!$B$2:$E$7</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,22 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,31 +131,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b4b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +183,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="&quot;tt:&quot;General"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,16 +205,78 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCC6600"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,18 +284,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -514,121 +662,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L12"/>
+  <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>100</v>
+        <f>SUM(1,3)</f>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
+        <f>SUM(J2:L2)</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45450000000000002</v>
       </c>
       <c r="E4">
-        <v>400</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4">
-        <v>600</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
+        <f>2.5*7</f>
+        <v>17.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44323</v>
+      </c>
+      <c r="H4" s="4">
+        <v>44448</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44290</v>
+      </c>
+      <c r="J4" s="6">
+        <v>123123</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
+      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L12" t="s">
+      <c r="I7" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="J7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -644,7 +824,7 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -655,55 +835,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -716,59 +884,48 @@
       <c r="E4">
         <v>400</v>
       </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4">
-        <v>600</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:E7"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -787,7 +944,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
